--- a/inst/extdata/example_data_tables.XLSX
+++ b/inst/extdata/example_data_tables.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardofilippi/Development/Projects/Metabolon/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E135973-3054-5749-B8B1-28157BEAB179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F564C-2811-0740-96F4-98D62C2E31E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16020" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24300" yWindow="-20880" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Key &amp; Explanation" sheetId="1" r:id="rId1"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="B20:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,24 +1487,6 @@
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>999000001</v>
-      </c>
-      <c r="C20">
-        <v>999000002</v>
-      </c>
-      <c r="D20">
-        <v>999000003</v>
-      </c>
-      <c r="E20">
-        <v>999000004</v>
-      </c>
-      <c r="F20">
-        <v>999000005</v>
-      </c>
-      <c r="G20">
-        <v>999000006</v>
-      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
     </row>
@@ -14631,7 +14613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AWF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
